--- a/Tokens/Tokens.xlsx
+++ b/Tokens/Tokens.xlsx
@@ -42,12 +42,6 @@
     <t>Invisibility</t>
   </si>
   <si>
-    <t>Burning</t>
-  </si>
-  <si>
-    <t>Salamanders</t>
-  </si>
-  <si>
     <t>Gal Vorbak</t>
   </si>
   <si>
@@ -85,6 +79,12 @@
   </si>
   <si>
     <t>Rending</t>
+  </si>
+  <si>
+    <t>Burning/Corrosion</t>
+  </si>
+  <si>
+    <t>Salamanders/Nurgle</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,88 +510,88 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Tokens/Tokens.xlsx
+++ b/Tokens/Tokens.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Token</t>
   </si>
@@ -460,7 +460,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,6 +553,9 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -561,6 +564,9 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -568,6 +574,9 @@
       </c>
       <c r="B10" t="s">
         <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">

--- a/Tokens/Tokens.xlsx
+++ b/Tokens/Tokens.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Token</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Salamanders/Nurgle</t>
+  </si>
+  <si>
+    <t>Spawn</t>
+  </si>
+  <si>
+    <t>Missions</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,6 +609,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
